--- a/Input/Takaful_Nas/benefits1.xlsx
+++ b/Input/Takaful_Nas/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="122">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -193,6 +193,9 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">copay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zumurrod</t>
   </si>
   <si>
@@ -296,6 +299,9 @@
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultations AED 50, pharma 15% co-pay, nil on all other OP services/</t>
   </si>
   <si>
     <t xml:space="preserve">Diamond</t>
@@ -426,9 +432,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +480,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,8 +497,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -511,10 +522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ6"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BH11" activeCellId="0" sqref="BH11"/>
+      <selection pane="topLeft" activeCell="BJ8" activeCellId="0" sqref="BJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,7 +535,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="17.93"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="61" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="34.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="64" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -700,705 +714,711 @@
       <c r="BJ1" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="BK1" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU2" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="AY2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BB2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC2" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD2" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="BE2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BH2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AY3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ3" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD3" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BB3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD3" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="BE3" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AE4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU4" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AY4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BB4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC4" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD4" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="BE4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG5" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI5" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ5" s="0" t="s">
-        <v>106</v>
-      </c>
       <c r="AK5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AY5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ5" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BD5" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BB5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC5" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD5" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="BE5" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S6" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AE6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="AG6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK6" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL6" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="AO6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AP6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AT6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AU6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AY6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BA6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB6" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="BB6" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="BC6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BD6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BE6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
